--- a/中期检查/NLU_Loss.xlsx
+++ b/中期检查/NLU_Loss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Notes\中期检查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70DD24-0B46-44BA-A48B-2CFFEBC539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276B8A1-547E-4F89-976D-315B03450FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,40 +544,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.12</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.28</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.23</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.97</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.65</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.38</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.23</c:v>
@@ -1250,64 +1250,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.18</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.05</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3025,7 @@
         <v>3.84</v>
       </c>
       <c r="F2" s="1">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>2.1</v>
       </c>
       <c r="F3" s="1">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>1.18</v>
       </c>
       <c r="F4" s="1">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>0.97</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0900000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>0.72</v>
       </c>
       <c r="F6" s="1">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>0.68</v>
       </c>
       <c r="F7" s="1">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>0.64</v>
       </c>
       <c r="F8" s="1">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F9" s="1">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>0.59</v>
       </c>
       <c r="F10" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>0.41</v>
       </c>
       <c r="F11" s="1">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>0.38</v>
       </c>
       <c r="F12" s="1">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>0.36</v>
       </c>
       <c r="F13" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>0.37</v>
       </c>
       <c r="F14" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>0.35</v>
       </c>
       <c r="F15" s="1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>0.36</v>
       </c>
       <c r="F16" s="1">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>0.35</v>
       </c>
       <c r="F17" s="1">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>0.34</v>
       </c>
       <c r="F18" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>0.33</v>
       </c>
       <c r="F19" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>0.32</v>
       </c>
       <c r="F20" s="1">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
         <v>0.32</v>
       </c>
       <c r="F21" s="1">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
         <v>25.2</v>
       </c>
       <c r="F23" s="1">
-        <v>24.12</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,7 +3453,7 @@
         <v>12.39</v>
       </c>
       <c r="F24" s="1">
-        <v>12.28</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>7.43</v>
       </c>
       <c r="F25" s="1">
-        <v>7.7</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>5.5</v>
       </c>
       <c r="F26" s="1">
-        <v>5.23</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F27" s="1">
-        <v>3.97</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
         <v>3.38</v>
       </c>
       <c r="F28" s="1">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,7 +3553,7 @@
         <v>2.91</v>
       </c>
       <c r="F29" s="1">
-        <v>2.6</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>1.18</v>
       </c>
       <c r="F30" s="1">
-        <v>1.65</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
         <v>0.97</v>
       </c>
       <c r="F32" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3633,7 +3633,7 @@
         <v>0.82</v>
       </c>
       <c r="F33" s="1">
-        <v>0.54</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,7 +3653,7 @@
         <v>0.59</v>
       </c>
       <c r="F34" s="1">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/中期检查/NLU_Loss.xlsx
+++ b/中期检查/NLU_Loss.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Notes\中期检查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276B8A1-547E-4F89-976D-315B03450FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB1FDE-BF8E-4F46-9355-EC7C5A92B978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15084" yWindow="1884" windowWidth="11712" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -180,64 +191,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25.68</c:v>
+                  <c:v>17.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.16</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.1</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.54</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.46</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.07</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.67</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.79</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.63</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.07</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.02</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,64 +282,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.46</c:v>
+                  <c:v>12.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.94</c:v>
+                  <c:v>7.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.94</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.88</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.61</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.11</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.97</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.36</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.43</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,31 +373,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.53</c:v>
+                  <c:v>14.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.68</c:v>
+                  <c:v>5.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.75</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.51</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.42</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.64</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.08</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.43</c:v>
@@ -398,28 +409,28 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,64 +464,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25.2</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.39</c:v>
+                  <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.43</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3499999999999996</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.38</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.91</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.18</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,28 +591,28 @@
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.13</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +897,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.33</c:v>
+                  <c:v>4.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0499999999999998</c:v>
@@ -895,55 +906,55 @@
                   <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.55</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.47</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.23</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.01</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,34 +1018,34 @@
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.42</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,25 +1118,25 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,25 +1209,25 @@
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,6 +1531,712 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-305E-4885-838F-987ABA5E93F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-305E-4885-838F-987ABA5E93F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-305E-4885-838F-987ABA5E93F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$44:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-305E-4885-838F-987ABA5E93F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$44:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-305E-4885-838F-987ABA5E93F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="844402447"/>
+        <c:axId val="915695743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="844402447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915695743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="915695743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="844402447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1600,6 +2317,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2632,20 +3389,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2672,16 +3945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2701,6 +3974,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAD7068-C6F5-BFE1-AFC8-72C5169E3186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2972,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3013,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>4.33</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="1">
         <v>3.17</v>
@@ -3073,7 +4382,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="1">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="C5" s="1">
         <v>1.77</v>
@@ -3093,7 +4402,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="1">
-        <v>1.55</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C6" s="1">
         <v>1.37</v>
@@ -3113,7 +4422,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="1">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
       <c r="C7" s="1">
         <v>0.94</v>
@@ -3133,7 +4442,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="1">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="C8" s="1">
         <v>0.94</v>
@@ -3153,7 +4462,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="1">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="1">
         <v>0.67</v>
@@ -3173,7 +4482,7 @@
         <v>90</v>
       </c>
       <c r="B10" s="1">
-        <v>1.23</v>
+        <v>0.72</v>
       </c>
       <c r="C10" s="1">
         <v>0.61</v>
@@ -3193,7 +4502,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="1">
-        <v>1.01</v>
+        <v>0.64</v>
       </c>
       <c r="C11" s="1">
         <v>0.55000000000000004</v>
@@ -3213,10 +4522,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="1">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="C12" s="1">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="D12" s="1">
         <v>0.41</v>
@@ -3233,10 +4542,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="C13" s="1">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="D13" s="1">
         <v>0.39</v>
@@ -3253,10 +4562,10 @@
         <v>130</v>
       </c>
       <c r="B14" s="1">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="C14" s="1">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="D14" s="1">
         <v>0.35</v>
@@ -3273,16 +4582,16 @@
         <v>140</v>
       </c>
       <c r="B15" s="1">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="1">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="1">
         <v>0.25</v>
@@ -3293,16 +4602,16 @@
         <v>150</v>
       </c>
       <c r="B16" s="1">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="C16" s="1">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="E16" s="1">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F16" s="1">
         <v>0.23</v>
@@ -3313,16 +4622,16 @@
         <v>160</v>
       </c>
       <c r="B17" s="1">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.45</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F17" s="1">
         <v>0.28999999999999998</v>
@@ -3333,16 +4642,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="1">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="D18" s="1">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="E18" s="1">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="F18" s="1">
         <v>0.26</v>
@@ -3353,16 +4662,16 @@
         <v>180</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="C19" s="1">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="D19" s="1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="1">
         <v>0.36</v>
@@ -3373,16 +4682,16 @@
         <v>190</v>
       </c>
       <c r="B20" s="1">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="E20" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="F20" s="1">
         <v>0.25</v>
@@ -3393,16 +4702,16 @@
         <v>200</v>
       </c>
       <c r="B21" s="1">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D21" s="1">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="E21" s="1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F21" s="1">
         <v>0.37</v>
@@ -3410,27 +4719,42 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="1">
+        <f>MIN(B2:B21)</f>
+        <v>0.27</v>
+      </c>
+      <c r="C22" s="1">
+        <f>MIN(C2:C21)</f>
+        <v>0.27</v>
+      </c>
+      <c r="D22" s="1">
+        <f>MIN(D2:D21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="1">
+        <f>MIN(E2:E21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="1">
+        <f>MIN(F2:F21)</f>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>25.68</v>
+        <v>17.68</v>
       </c>
       <c r="C23" s="1">
-        <v>27.46</v>
+        <v>12.46</v>
       </c>
       <c r="D23" s="1">
-        <v>30.53</v>
+        <v>14.53</v>
       </c>
       <c r="E23" s="1">
-        <v>25.2</v>
+        <v>15.1</v>
       </c>
       <c r="F23" s="1">
         <v>13.35</v>
@@ -3441,16 +4765,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>20.16</v>
+        <v>8.16</v>
       </c>
       <c r="C24" s="1">
-        <v>13.94</v>
+        <v>7.94</v>
       </c>
       <c r="D24" s="1">
-        <v>12.68</v>
+        <v>5.67</v>
       </c>
       <c r="E24" s="1">
-        <v>12.39</v>
+        <v>6.13</v>
       </c>
       <c r="F24" s="1">
         <v>5.0199999999999996</v>
@@ -3461,16 +4785,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>12.1</v>
+        <v>3.62</v>
       </c>
       <c r="C25" s="1">
-        <v>8.94</v>
+        <v>3.78</v>
       </c>
       <c r="D25" s="1">
-        <v>7.75</v>
+        <v>2.65</v>
       </c>
       <c r="E25" s="1">
-        <v>7.43</v>
+        <v>3.01</v>
       </c>
       <c r="F25" s="1">
         <v>2.95</v>
@@ -3481,16 +4805,16 @@
         <v>40</v>
       </c>
       <c r="B26" s="1">
-        <v>6.54</v>
+        <v>1.42</v>
       </c>
       <c r="C26" s="1">
-        <v>6.88</v>
+        <v>1.78</v>
       </c>
       <c r="D26" s="1">
-        <v>6.51</v>
+        <v>1.45</v>
       </c>
       <c r="E26" s="1">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="F26" s="1">
         <v>1.97</v>
@@ -3501,16 +4825,16 @@
         <v>50</v>
       </c>
       <c r="B27" s="1">
-        <v>5.46</v>
+        <v>1.22</v>
       </c>
       <c r="C27" s="1">
-        <v>5.5</v>
+        <v>1.23</v>
       </c>
       <c r="D27" s="1">
-        <v>3.42</v>
+        <v>1.03</v>
       </c>
       <c r="E27" s="1">
-        <v>4.3499999999999996</v>
+        <v>2.31</v>
       </c>
       <c r="F27" s="1">
         <v>1.51</v>
@@ -3521,16 +4845,16 @@
         <v>60</v>
       </c>
       <c r="B28" s="1">
-        <v>4.07</v>
+        <v>0.98</v>
       </c>
       <c r="C28" s="1">
-        <v>4.1399999999999997</v>
+        <v>0.99</v>
       </c>
       <c r="D28" s="1">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="E28" s="1">
-        <v>3.38</v>
+        <v>1.91</v>
       </c>
       <c r="F28" s="1">
         <v>1.02</v>
@@ -3541,16 +4865,16 @@
         <v>70</v>
       </c>
       <c r="B29" s="1">
-        <v>3.67</v>
+        <v>0.81</v>
       </c>
       <c r="C29" s="1">
-        <v>3.61</v>
+        <v>0.72</v>
       </c>
       <c r="D29" s="1">
-        <v>2.4</v>
+        <v>0.82</v>
       </c>
       <c r="E29" s="1">
-        <v>2.91</v>
+        <v>1.42</v>
       </c>
       <c r="F29" s="1">
         <v>0.83</v>
@@ -3561,16 +4885,16 @@
         <v>80</v>
       </c>
       <c r="B30" s="1">
-        <v>2.79</v>
+        <v>0.74</v>
       </c>
       <c r="C30" s="1">
-        <v>2.5099999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D30" s="1">
-        <v>2.08</v>
+        <v>0.63</v>
       </c>
       <c r="E30" s="1">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="F30" s="1">
         <v>0.77</v>
@@ -3581,16 +4905,16 @@
         <v>90</v>
       </c>
       <c r="B31" s="1">
-        <v>2.1</v>
+        <v>0.72</v>
       </c>
       <c r="C31" s="1">
-        <v>2.11</v>
+        <v>0.74</v>
       </c>
       <c r="D31" s="1">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="E31" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="F31" s="1">
         <v>1.08</v>
@@ -3601,16 +4925,16 @@
         <v>100</v>
       </c>
       <c r="B32" s="1">
-        <v>1.63</v>
+        <v>0.69</v>
       </c>
       <c r="C32" s="1">
-        <v>1.97</v>
+        <v>0.63</v>
       </c>
       <c r="D32" s="1">
         <v>0.43</v>
       </c>
       <c r="E32" s="1">
-        <v>0.97</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F32" s="1">
         <v>0.73</v>
@@ -3621,16 +4945,16 @@
         <v>110</v>
       </c>
       <c r="B33" s="1">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="C33" s="1">
-        <v>1.36</v>
+        <v>0.61</v>
       </c>
       <c r="D33" s="1">
         <v>0.39</v>
       </c>
       <c r="E33" s="1">
-        <v>0.82</v>
+        <v>0.46</v>
       </c>
       <c r="F33" s="1">
         <v>0.98</v>
@@ -3641,16 +4965,16 @@
         <v>120</v>
       </c>
       <c r="B34" s="1">
-        <v>1.02</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C34" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D34" s="1">
         <v>0.35</v>
       </c>
       <c r="E34" s="1">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F34" s="1">
         <v>0.61</v>
@@ -3661,19 +4985,19 @@
         <v>130</v>
       </c>
       <c r="B35" s="1">
-        <v>0.98</v>
+        <v>0.42</v>
       </c>
       <c r="C35" s="1">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="D35" s="1">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E35" s="1">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F35" s="1">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,19 +5005,19 @@
         <v>140</v>
       </c>
       <c r="B36" s="1">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="C36" s="1">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="D36" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F36" s="1">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,10 +5025,10 @@
         <v>150</v>
       </c>
       <c r="B37" s="1">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="C37" s="1">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="D37" s="1">
         <v>0.28999999999999998</v>
@@ -3713,7 +5037,7 @@
         <v>0.23</v>
       </c>
       <c r="F37" s="1">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,19 +5045,19 @@
         <v>160</v>
       </c>
       <c r="B38" s="1">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38" s="1">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="D38" s="1">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E38" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F38" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,19 +5065,19 @@
         <v>170</v>
       </c>
       <c r="B39" s="1">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="C39" s="1">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D39" s="1">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E39" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F39" s="1">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3761,19 +5085,19 @@
         <v>180</v>
       </c>
       <c r="B40" s="1">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="C40" s="1">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="D40" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E40" s="1">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F40" s="1">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,19 +5105,19 @@
         <v>190</v>
       </c>
       <c r="B41" s="1">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="C41" s="1">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E41" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,19 +5125,459 @@
         <v>200</v>
       </c>
       <c r="B42" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>MIN(B23:B42)</f>
+        <v>0.21</v>
+      </c>
+      <c r="C43">
+        <f>MIN(C23:C42)</f>
+        <v>0.19</v>
+      </c>
+      <c r="D43">
+        <f>MIN(D23:D42)</f>
+        <v>0.15</v>
+      </c>
+      <c r="E43">
+        <f>MIN(E23:E42)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F43">
+        <f>MIN(F23:F42)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8.36</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>100</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>110</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1">
         <v>0.35</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C55" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>130</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.18</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E57" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F58" s="1">
         <v>0.16</v>
       </c>
-      <c r="F42" s="1">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>160</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>170</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F60" s="1">
         <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>190</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>200</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F64">
+        <f>MIN(F44:F63)</f>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
